--- a/総合テスト/2. カート機能/ST-C-005_結果.xlsx
+++ b/総合テスト/2. カート機能/ST-C-005_結果.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shogo.murata\Desktop\Cart総合結果\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605201DD-E2D1-4F79-9DA5-58DD490C2DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91719693-644B-4A23-B6BB-A076F3BD1B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{D79F4811-AACA-4039-B91F-FBD7AA8617A3}"/>
   </bookViews>
   <sheets>
-    <sheet name="カートモーダル" sheetId="1" r:id="rId1"/>
-    <sheet name="注文手続きへ" sheetId="2" r:id="rId2"/>
+    <sheet name="STC-005_1" sheetId="1" r:id="rId1"/>
+    <sheet name="STC-005_2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -531,7 +531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76A84A1-05D9-4BAA-8257-7203A2412E79}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
